--- a/gestion-programacion/creador-categorias/carga_ccatg.xlsx
+++ b/gestion-programacion/creador-categorias/carga_ccatg.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ORIGINAL" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CATEGORIAS_IDS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORIGINAL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CATEGORIAS_IDS" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Hoja1!$A$1:$F$177</definedName>
-  </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -31,8 +29,8 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -46,12 +44,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -66,8 +79,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -144,21 +159,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1_2" displayName="Tabla1_2" ref="A1:F177" tableType="queryTable" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:F177"/>
-  <tableColumns count="6">
-    <tableColumn id="7" uniqueName="7" name="ESPECIALIDAD" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="ESPC_ID" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="SEDE" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="SEDE_ID" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="CICLO" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="CICLO_ID" queryTableFieldId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,43 +458,35 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col width="45.85546875" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="10.42578125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="54.42578125" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="23.42578125" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ESPECIALIDAD</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ESPC_ID</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SEDE_ID</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>CICLO</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CICLO_ID</t>
         </is>
@@ -6133,10 +6125,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -11896,7 +11885,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -11909,7 +11898,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1433</v>
+        <v>308</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -11922,7 +11911,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1434</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3">
@@ -11937,7 +11926,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -11950,7 +11939,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1435</v>
+        <v>310</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -11963,7 +11952,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1436</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4">
@@ -11978,7 +11967,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -11991,7 +11980,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1437</v>
+        <v>312</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -12004,7 +11993,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1438</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5">
@@ -12019,7 +12008,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -12032,7 +12021,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1439</v>
+        <v>314</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -12045,7 +12034,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1440</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6">
@@ -12060,7 +12049,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -12073,7 +12062,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1441</v>
+        <v>316</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -12086,7 +12075,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1442</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7">
@@ -12101,7 +12090,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -12114,7 +12103,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1443</v>
+        <v>318</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -12127,7 +12116,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1444</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8">
@@ -12142,7 +12131,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -12155,7 +12144,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1445</v>
+        <v>320</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -12168,7 +12157,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1446</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9">
@@ -12183,7 +12172,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -12196,7 +12185,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1437</v>
+        <v>312</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -12209,7 +12198,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1447</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10">
@@ -12224,7 +12213,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -12237,7 +12226,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1448</v>
+        <v>323</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -12250,7 +12239,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1449</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11">
@@ -12265,7 +12254,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -12278,7 +12267,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1445</v>
+        <v>320</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -12291,7 +12280,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1450</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12">
@@ -12306,7 +12295,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -12319,7 +12308,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1451</v>
+        <v>326</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -12332,7 +12321,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1452</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13">
@@ -12347,7 +12336,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -12360,7 +12349,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1453</v>
+        <v>328</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -12373,7 +12362,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1454</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14">
@@ -12388,7 +12377,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -12401,7 +12390,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1443</v>
+        <v>318</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -12414,7 +12403,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1455</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15">
@@ -12429,7 +12418,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -12442,7 +12431,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1456</v>
+        <v>331</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -12455,7 +12444,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1457</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16">
@@ -12470,7 +12459,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -12483,7 +12472,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1458</v>
+        <v>333</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -12496,7 +12485,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1459</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17">
@@ -12511,7 +12500,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -12524,7 +12513,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1445</v>
+        <v>320</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -12537,7 +12526,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1460</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18">
@@ -12552,7 +12541,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -12565,7 +12554,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1461</v>
+        <v>336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -12578,7 +12567,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1462</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19">
@@ -12593,7 +12582,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -12606,7 +12595,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1463</v>
+        <v>338</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -12619,7 +12608,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1464</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20">
@@ -12634,7 +12623,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -12647,7 +12636,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1456</v>
+        <v>331</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -12660,7 +12649,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1465</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21">
@@ -12675,7 +12664,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -12688,7 +12677,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1443</v>
+        <v>318</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -12701,7 +12690,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1466</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22">
@@ -12716,7 +12705,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -12729,7 +12718,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1453</v>
+        <v>328</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -12742,7 +12731,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1467</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23">
@@ -12757,7 +12746,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -12770,7 +12759,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1453</v>
+        <v>328</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -12783,7 +12772,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1468</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24">
@@ -12798,7 +12787,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -12811,7 +12800,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1443</v>
+        <v>318</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -12824,7 +12813,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1469</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25">
@@ -12839,7 +12828,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -12852,7 +12841,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1445</v>
+        <v>320</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -12865,7 +12854,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1470</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26">
@@ -12880,7 +12869,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -12893,7 +12882,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1471</v>
+        <v>346</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -12906,7 +12895,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1472</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27">
@@ -12921,7 +12910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -12934,7 +12923,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1473</v>
+        <v>348</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -12947,7 +12936,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1474</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28">
@@ -12962,7 +12951,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -12975,7 +12964,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1475</v>
+        <v>350</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -12988,7 +12977,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1476</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29">
@@ -13003,7 +12992,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -13016,7 +13005,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1437</v>
+        <v>312</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -13029,7 +13018,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1477</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30">
@@ -13044,7 +13033,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -13057,7 +13046,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1445</v>
+        <v>320</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -13070,7 +13059,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1478</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31">
@@ -13085,7 +13074,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -13098,7 +13087,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1461</v>
+        <v>336</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -13111,7 +13100,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1479</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32">
@@ -13126,7 +13115,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -13139,7 +13128,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1453</v>
+        <v>328</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -13152,7 +13141,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1480</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33">
@@ -13167,7 +13156,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -13180,7 +13169,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1453</v>
+        <v>328</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -13193,7 +13182,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1481</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34">
@@ -13208,7 +13197,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -13221,7 +13210,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1451</v>
+        <v>326</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -13234,7 +13223,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1482</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35">
@@ -13249,7 +13238,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -13262,7 +13251,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1483</v>
+        <v>358</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -13275,7 +13264,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1484</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36">
@@ -13290,7 +13279,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -13303,7 +13292,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1485</v>
+        <v>360</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -13316,7 +13305,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1486</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37">
@@ -13331,7 +13320,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -13344,7 +13333,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1445</v>
+        <v>320</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -13357,7 +13346,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1487</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38">
@@ -13372,7 +13361,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -13385,7 +13374,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1443</v>
+        <v>318</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -13398,7 +13387,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1488</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39">
@@ -13413,7 +13402,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -13426,7 +13415,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1437</v>
+        <v>312</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -13439,7 +13428,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1489</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40">
@@ -13454,7 +13443,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -13467,7 +13456,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1458</v>
+        <v>333</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -13480,7 +13469,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1490</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41">
@@ -13495,7 +13484,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -13508,7 +13497,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1491</v>
+        <v>366</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -13521,7 +13510,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1492</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42">
@@ -13536,7 +13525,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -13549,7 +13538,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1451</v>
+        <v>326</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -13562,7 +13551,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1493</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
@@ -13577,7 +13566,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -13590,7 +13579,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1443</v>
+        <v>318</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -13603,7 +13592,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1494</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44">
@@ -13618,7 +13607,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -13631,7 +13620,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1461</v>
+        <v>336</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -13644,7 +13633,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1495</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45">
@@ -13659,7 +13648,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -13672,7 +13661,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1439</v>
+        <v>314</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -13685,7 +13674,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1496</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46">
@@ -13700,7 +13689,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -13713,7 +13702,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1483</v>
+        <v>358</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -13726,7 +13715,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1497</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47">
@@ -13741,7 +13730,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -13754,7 +13743,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1473</v>
+        <v>348</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -13767,7 +13756,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1498</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48">
@@ -13782,7 +13771,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -13795,7 +13784,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1453</v>
+        <v>328</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -13808,7 +13797,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1499</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49">
@@ -13823,7 +13812,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -13836,7 +13825,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1441</v>
+        <v>316</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -13849,7 +13838,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50">
@@ -13864,7 +13853,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -13877,7 +13866,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1451</v>
+        <v>326</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -13890,7 +13879,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1501</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51">
@@ -13905,7 +13894,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -13918,7 +13907,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1435</v>
+        <v>310</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -13931,7 +13920,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1502</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52">
@@ -13946,7 +13935,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -13959,7 +13948,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1451</v>
+        <v>326</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -13972,7 +13961,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1503</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53">
@@ -13987,7 +13976,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -14000,7 +13989,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1433</v>
+        <v>308</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -14013,7 +14002,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1504</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54">
@@ -14028,7 +14017,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -14041,7 +14030,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1458</v>
+        <v>333</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -14054,7 +14043,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1505</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55">
@@ -14069,7 +14058,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -14082,7 +14071,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1458</v>
+        <v>333</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -14095,7 +14084,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1506</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56">
@@ -14110,7 +14099,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -14123,7 +14112,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1433</v>
+        <v>308</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -14136,7 +14125,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1507</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57">
@@ -14151,7 +14140,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -14164,7 +14153,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1473</v>
+        <v>348</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -14177,7 +14166,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1508</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58">
@@ -14192,7 +14181,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -14205,7 +14194,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1471</v>
+        <v>346</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -14218,7 +14207,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1509</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59">
@@ -14233,7 +14222,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -14246,7 +14235,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1435</v>
+        <v>310</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -14259,7 +14248,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1510</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60">
@@ -14274,7 +14263,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -14287,7 +14276,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1475</v>
+        <v>350</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -14300,7 +14289,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1511</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61">
@@ -14315,7 +14304,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -14328,7 +14317,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1475</v>
+        <v>350</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -14341,7 +14330,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1512</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62">
@@ -14356,7 +14345,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -14369,7 +14358,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1435</v>
+        <v>310</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -14382,7 +14371,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1513</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63">
@@ -14397,7 +14386,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -14410,7 +14399,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1448</v>
+        <v>323</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -14423,7 +14412,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1514</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64">
@@ -14438,7 +14427,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -14451,7 +14440,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1463</v>
+        <v>338</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -14464,7 +14453,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1515</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65">
@@ -14479,7 +14468,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -14492,7 +14481,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1461</v>
+        <v>336</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -14505,7 +14494,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1516</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66">
@@ -14520,7 +14509,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -14533,7 +14522,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1483</v>
+        <v>358</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -14546,7 +14535,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1517</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67">
@@ -14561,7 +14550,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -14574,7 +14563,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1458</v>
+        <v>333</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -14587,7 +14576,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1518</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68">
@@ -14602,7 +14591,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -14615,7 +14604,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1485</v>
+        <v>360</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -14628,7 +14617,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1519</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69">
@@ -14643,7 +14632,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -14656,7 +14645,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1475</v>
+        <v>350</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -14669,7 +14658,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1520</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70">
@@ -14684,7 +14673,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -14697,7 +14686,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1435</v>
+        <v>310</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -14710,7 +14699,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1521</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71">
@@ -14725,7 +14714,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -14738,7 +14727,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1441</v>
+        <v>316</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -14751,7 +14740,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1522</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72">
@@ -14766,7 +14755,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -14779,7 +14768,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1448</v>
+        <v>323</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -14792,7 +14781,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1523</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73">
@@ -14807,7 +14796,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -14820,7 +14809,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1439</v>
+        <v>314</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -14833,7 +14822,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1524</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74">
@@ -14848,7 +14837,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -14861,7 +14850,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1433</v>
+        <v>308</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -14874,7 +14863,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1525</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75">
@@ -14889,7 +14878,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -14902,7 +14891,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1441</v>
+        <v>316</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -14915,7 +14904,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1526</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76">
@@ -14930,7 +14919,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -14943,7 +14932,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1463</v>
+        <v>338</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -14956,7 +14945,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1527</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77">
@@ -14971,7 +14960,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -14984,7 +14973,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1473</v>
+        <v>348</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -14997,7 +14986,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1528</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78">
@@ -15012,7 +15001,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -15025,7 +15014,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1433</v>
+        <v>308</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -15038,7 +15027,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1529</v>
+        <v>404</v>
       </c>
     </row>
     <row r="79">
@@ -15053,7 +15042,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -15066,7 +15055,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1463</v>
+        <v>338</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -15079,7 +15068,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1530</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80">
@@ -15094,7 +15083,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1432</v>
+        <v>307</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -15107,7 +15096,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1441</v>
+        <v>316</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -15120,7 +15109,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1531</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81">
@@ -15135,7 +15124,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1532</v>
+        <v>407</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -15148,7 +15137,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1533</v>
+        <v>408</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -15161,7 +15150,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1534</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82">
@@ -15176,7 +15165,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1532</v>
+        <v>407</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -15189,7 +15178,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1535</v>
+        <v>410</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -15202,7 +15191,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1536</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83">
@@ -15217,7 +15206,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1532</v>
+        <v>407</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -15230,7 +15219,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1533</v>
+        <v>408</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -15243,7 +15232,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1537</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84">
@@ -15258,7 +15247,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1532</v>
+        <v>407</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -15271,7 +15260,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1533</v>
+        <v>408</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -15284,7 +15273,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1538</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85">
@@ -15299,7 +15288,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1532</v>
+        <v>407</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -15312,7 +15301,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1533</v>
+        <v>408</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -15325,7 +15314,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1539</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86">
@@ -15340,7 +15329,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1532</v>
+        <v>407</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -15353,7 +15342,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1533</v>
+        <v>408</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -15366,7 +15355,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1540</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87">
@@ -15381,7 +15370,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1532</v>
+        <v>407</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -15394,7 +15383,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1533</v>
+        <v>408</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -15407,7 +15396,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1541</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88">
@@ -15422,7 +15411,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1542</v>
+        <v>417</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -15435,7 +15424,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1543</v>
+        <v>418</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -15448,7 +15437,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1544</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89">
@@ -15463,7 +15452,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1542</v>
+        <v>417</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -15476,7 +15465,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1543</v>
+        <v>418</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -15489,7 +15478,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1545</v>
+        <v>420</v>
       </c>
     </row>
     <row r="90">
@@ -15504,7 +15493,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1542</v>
+        <v>417</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -15517,7 +15506,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1543</v>
+        <v>418</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -15530,7 +15519,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1546</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91">
@@ -15545,7 +15534,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1542</v>
+        <v>417</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -15558,7 +15547,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1543</v>
+        <v>418</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -15571,7 +15560,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1547</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92">
@@ -15586,7 +15575,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1542</v>
+        <v>417</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -15599,7 +15588,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1543</v>
+        <v>418</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -15612,7 +15601,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1548</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93">
@@ -15627,7 +15616,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1542</v>
+        <v>417</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -15640,7 +15629,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1543</v>
+        <v>418</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -15653,7 +15642,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1549</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94">
@@ -15668,7 +15657,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -15681,7 +15670,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1551</v>
+        <v>426</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -15694,7 +15683,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1552</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95">
@@ -15709,7 +15698,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -15722,7 +15711,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1553</v>
+        <v>428</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -15735,7 +15724,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1554</v>
+        <v>429</v>
       </c>
     </row>
     <row r="96">
@@ -15750,7 +15739,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -15763,7 +15752,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1551</v>
+        <v>426</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -15776,7 +15765,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1555</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97">
@@ -15791,7 +15780,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -15804,7 +15793,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1556</v>
+        <v>431</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -15817,7 +15806,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1557</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98">
@@ -15832,7 +15821,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -15845,7 +15834,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1558</v>
+        <v>433</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -15858,7 +15847,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1559</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99">
@@ -15873,7 +15862,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -15886,7 +15875,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1551</v>
+        <v>426</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -15899,7 +15888,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1560</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100">
@@ -15914,7 +15903,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -15927,7 +15916,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1561</v>
+        <v>436</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -15940,7 +15929,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1562</v>
+        <v>437</v>
       </c>
     </row>
     <row r="101">
@@ -15955,7 +15944,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -15968,7 +15957,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1563</v>
+        <v>438</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -15981,7 +15970,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1564</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102">
@@ -15996,7 +15985,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -16009,7 +15998,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1561</v>
+        <v>436</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -16022,7 +16011,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1565</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103">
@@ -16037,7 +16026,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -16050,7 +16039,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1566</v>
+        <v>441</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -16063,7 +16052,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1567</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104">
@@ -16078,7 +16067,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -16091,7 +16080,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1551</v>
+        <v>426</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -16104,7 +16093,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1568</v>
+        <v>443</v>
       </c>
     </row>
     <row r="105">
@@ -16119,7 +16108,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -16132,7 +16121,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1561</v>
+        <v>436</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -16145,7 +16134,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1569</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106">
@@ -16160,7 +16149,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -16173,7 +16162,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1551</v>
+        <v>426</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -16186,7 +16175,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1570</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107">
@@ -16201,7 +16190,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -16214,7 +16203,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1571</v>
+        <v>446</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -16227,7 +16216,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1572</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108">
@@ -16242,7 +16231,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -16255,7 +16244,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1556</v>
+        <v>431</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -16268,7 +16257,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1573</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109">
@@ -16283,7 +16272,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -16296,7 +16285,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1571</v>
+        <v>446</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -16309,7 +16298,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1574</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110">
@@ -16324,7 +16313,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -16337,7 +16326,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1566</v>
+        <v>441</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -16350,7 +16339,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1575</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111">
@@ -16365,7 +16354,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -16378,7 +16367,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1551</v>
+        <v>426</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -16391,7 +16380,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1576</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112">
@@ -16406,7 +16395,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -16419,7 +16408,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1553</v>
+        <v>428</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -16432,7 +16421,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1577</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113">
@@ -16447,7 +16436,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -16460,7 +16449,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1561</v>
+        <v>436</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -16473,7 +16462,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1578</v>
+        <v>453</v>
       </c>
     </row>
     <row r="114">
@@ -16488,7 +16477,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -16501,7 +16490,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1571</v>
+        <v>446</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -16514,7 +16503,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1579</v>
+        <v>454</v>
       </c>
     </row>
     <row r="115">
@@ -16529,7 +16518,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -16542,7 +16531,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1553</v>
+        <v>428</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -16555,7 +16544,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1580</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116">
@@ -16570,7 +16559,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -16583,7 +16572,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1553</v>
+        <v>428</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -16596,7 +16585,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1581</v>
+        <v>456</v>
       </c>
     </row>
     <row r="117">
@@ -16611,7 +16600,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -16624,7 +16613,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1553</v>
+        <v>428</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -16637,7 +16626,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1582</v>
+        <v>457</v>
       </c>
     </row>
     <row r="118">
@@ -16652,7 +16641,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -16665,7 +16654,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1571</v>
+        <v>446</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -16678,7 +16667,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1583</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119">
@@ -16693,7 +16682,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -16706,7 +16695,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1553</v>
+        <v>428</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -16719,7 +16708,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1584</v>
+        <v>459</v>
       </c>
     </row>
     <row r="120">
@@ -16734,7 +16723,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -16747,7 +16736,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1556</v>
+        <v>431</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -16760,7 +16749,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1585</v>
+        <v>460</v>
       </c>
     </row>
     <row r="121">
@@ -16775,7 +16764,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -16788,7 +16777,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1586</v>
+        <v>461</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -16801,7 +16790,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1587</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122">
@@ -16816,7 +16805,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -16829,7 +16818,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1561</v>
+        <v>436</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -16842,7 +16831,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1588</v>
+        <v>463</v>
       </c>
     </row>
     <row r="123">
@@ -16857,7 +16846,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -16870,7 +16859,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1563</v>
+        <v>438</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -16883,7 +16872,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1589</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124">
@@ -16898,7 +16887,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -16911,7 +16900,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1566</v>
+        <v>441</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -16924,7 +16913,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1590</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125">
@@ -16939,7 +16928,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -16952,7 +16941,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1556</v>
+        <v>431</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -16965,7 +16954,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1591</v>
+        <v>466</v>
       </c>
     </row>
     <row r="126">
@@ -16980,7 +16969,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -16993,7 +16982,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1558</v>
+        <v>433</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -17006,7 +16995,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1592</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127">
@@ -17021,7 +17010,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -17034,7 +17023,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1593</v>
+        <v>468</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -17047,7 +17036,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1594</v>
+        <v>469</v>
       </c>
     </row>
     <row r="128">
@@ -17062,7 +17051,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -17075,7 +17064,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1586</v>
+        <v>461</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -17088,7 +17077,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1595</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129">
@@ -17103,7 +17092,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -17116,7 +17105,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1561</v>
+        <v>436</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -17129,7 +17118,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1596</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130">
@@ -17144,7 +17133,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -17157,7 +17146,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1597</v>
+        <v>472</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -17170,7 +17159,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1598</v>
+        <v>473</v>
       </c>
     </row>
     <row r="131">
@@ -17185,7 +17174,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1550</v>
+        <v>425</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -17198,7 +17187,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1571</v>
+        <v>446</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -17211,7 +17200,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1599</v>
+        <v>474</v>
       </c>
     </row>
     <row r="132">
@@ -17226,7 +17215,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -17239,7 +17228,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1601</v>
+        <v>476</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -17252,7 +17241,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1602</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133">
@@ -17267,7 +17256,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -17280,7 +17269,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1603</v>
+        <v>478</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -17293,7 +17282,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1604</v>
+        <v>479</v>
       </c>
     </row>
     <row r="134">
@@ -17308,7 +17297,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -17321,7 +17310,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1601</v>
+        <v>476</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -17334,7 +17323,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1605</v>
+        <v>480</v>
       </c>
     </row>
     <row r="135">
@@ -17349,7 +17338,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -17362,7 +17351,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1606</v>
+        <v>481</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -17375,7 +17364,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1607</v>
+        <v>482</v>
       </c>
     </row>
     <row r="136">
@@ -17390,7 +17379,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -17403,7 +17392,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1601</v>
+        <v>476</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -17416,7 +17405,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1608</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137">
@@ -17431,7 +17420,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -17444,7 +17433,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1606</v>
+        <v>481</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -17457,7 +17446,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1609</v>
+        <v>484</v>
       </c>
     </row>
     <row r="138">
@@ -17472,7 +17461,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -17485,7 +17474,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1610</v>
+        <v>485</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -17498,7 +17487,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1611</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139">
@@ -17513,7 +17502,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -17526,7 +17515,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1603</v>
+        <v>478</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -17539,7 +17528,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1612</v>
+        <v>487</v>
       </c>
     </row>
     <row r="140">
@@ -17554,7 +17543,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -17567,7 +17556,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1613</v>
+        <v>488</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -17580,7 +17569,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1614</v>
+        <v>489</v>
       </c>
     </row>
     <row r="141">
@@ -17595,7 +17584,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -17608,7 +17597,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1603</v>
+        <v>478</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -17621,7 +17610,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1615</v>
+        <v>490</v>
       </c>
     </row>
     <row r="142">
@@ -17636,7 +17625,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -17649,7 +17638,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1601</v>
+        <v>476</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -17662,7 +17651,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1616</v>
+        <v>491</v>
       </c>
     </row>
     <row r="143">
@@ -17677,7 +17666,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -17690,7 +17679,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1617</v>
+        <v>492</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -17703,7 +17692,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1618</v>
+        <v>493</v>
       </c>
     </row>
     <row r="144">
@@ -17718,7 +17707,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -17731,7 +17720,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1606</v>
+        <v>481</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -17744,7 +17733,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1619</v>
+        <v>494</v>
       </c>
     </row>
     <row r="145">
@@ -17759,7 +17748,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -17772,7 +17761,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1603</v>
+        <v>478</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -17785,7 +17774,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1620</v>
+        <v>495</v>
       </c>
     </row>
     <row r="146">
@@ -17800,7 +17789,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -17813,7 +17802,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1617</v>
+        <v>492</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -17826,7 +17815,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1621</v>
+        <v>496</v>
       </c>
     </row>
     <row r="147">
@@ -17841,7 +17830,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -17854,7 +17843,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1601</v>
+        <v>476</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -17867,7 +17856,7 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1622</v>
+        <v>497</v>
       </c>
     </row>
     <row r="148">
@@ -17882,7 +17871,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -17895,7 +17884,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1606</v>
+        <v>481</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -17908,7 +17897,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1623</v>
+        <v>498</v>
       </c>
     </row>
     <row r="149">
@@ -17923,7 +17912,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -17936,7 +17925,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1610</v>
+        <v>485</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -17949,7 +17938,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1624</v>
+        <v>499</v>
       </c>
     </row>
     <row r="150">
@@ -17964,7 +17953,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -17977,7 +17966,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1625</v>
+        <v>500</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -17990,7 +17979,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1626</v>
+        <v>501</v>
       </c>
     </row>
     <row r="151">
@@ -18005,7 +17994,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -18018,7 +18007,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1601</v>
+        <v>476</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -18031,7 +18020,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>1627</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152">
@@ -18046,7 +18035,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -18059,7 +18048,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1603</v>
+        <v>478</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -18072,7 +18061,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1628</v>
+        <v>503</v>
       </c>
     </row>
     <row r="153">
@@ -18087,7 +18076,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -18100,7 +18089,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1617</v>
+        <v>492</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -18113,7 +18102,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1629</v>
+        <v>504</v>
       </c>
     </row>
     <row r="154">
@@ -18128,7 +18117,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -18141,7 +18130,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1625</v>
+        <v>500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -18154,7 +18143,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1630</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155">
@@ -18169,7 +18158,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -18182,7 +18171,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1631</v>
+        <v>506</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -18195,7 +18184,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1632</v>
+        <v>507</v>
       </c>
     </row>
     <row r="156">
@@ -18210,7 +18199,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -18223,7 +18212,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1610</v>
+        <v>485</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -18236,7 +18225,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1633</v>
+        <v>508</v>
       </c>
     </row>
     <row r="157">
@@ -18251,7 +18240,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -18264,7 +18253,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1634</v>
+        <v>509</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -18277,7 +18266,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1635</v>
+        <v>510</v>
       </c>
     </row>
     <row r="158">
@@ -18292,7 +18281,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -18305,7 +18294,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1610</v>
+        <v>485</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -18318,7 +18307,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1636</v>
+        <v>511</v>
       </c>
     </row>
     <row r="159">
@@ -18333,7 +18322,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -18346,7 +18335,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1631</v>
+        <v>506</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -18359,7 +18348,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>1637</v>
+        <v>512</v>
       </c>
     </row>
     <row r="160">
@@ -18374,7 +18363,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -18387,7 +18376,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1613</v>
+        <v>488</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -18400,7 +18389,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>1638</v>
+        <v>513</v>
       </c>
     </row>
     <row r="161">
@@ -18415,7 +18404,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -18428,7 +18417,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1617</v>
+        <v>492</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -18441,7 +18430,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>1639</v>
+        <v>514</v>
       </c>
     </row>
     <row r="162">
@@ -18456,7 +18445,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -18469,7 +18458,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1625</v>
+        <v>500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -18482,7 +18471,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>1640</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163">
@@ -18497,7 +18486,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -18510,7 +18499,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1625</v>
+        <v>500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -18523,7 +18512,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1641</v>
+        <v>516</v>
       </c>
     </row>
     <row r="164">
@@ -18538,7 +18527,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -18551,7 +18540,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1642</v>
+        <v>517</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -18564,7 +18553,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1643</v>
+        <v>518</v>
       </c>
     </row>
     <row r="165">
@@ -18579,7 +18568,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -18592,7 +18581,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1617</v>
+        <v>492</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -18605,7 +18594,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>1644</v>
+        <v>519</v>
       </c>
     </row>
     <row r="166">
@@ -18620,7 +18609,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -18633,7 +18622,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1613</v>
+        <v>488</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -18646,7 +18635,7 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>1645</v>
+        <v>520</v>
       </c>
     </row>
     <row r="167">
@@ -18661,7 +18650,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -18674,7 +18663,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1613</v>
+        <v>488</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -18687,7 +18676,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>1646</v>
+        <v>521</v>
       </c>
     </row>
     <row r="168">
@@ -18702,7 +18691,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -18715,7 +18704,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1647</v>
+        <v>522</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -18728,7 +18717,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>1648</v>
+        <v>523</v>
       </c>
     </row>
     <row r="169">
@@ -18743,7 +18732,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -18756,7 +18745,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1625</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -18769,7 +18758,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>1649</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170">
@@ -18784,7 +18773,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -18797,7 +18786,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1625</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -18810,7 +18799,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>1650</v>
+        <v>525</v>
       </c>
     </row>
     <row r="171">
@@ -18825,7 +18814,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -18838,7 +18827,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1610</v>
+        <v>485</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -18851,7 +18840,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>1651</v>
+        <v>526</v>
       </c>
     </row>
     <row r="172">
@@ -18866,7 +18855,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -18879,7 +18868,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1617</v>
+        <v>492</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -18892,7 +18881,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>1652</v>
+        <v>527</v>
       </c>
     </row>
     <row r="173">
@@ -18907,7 +18896,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -18920,7 +18909,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1606</v>
+        <v>481</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -18933,7 +18922,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>1653</v>
+        <v>528</v>
       </c>
     </row>
     <row r="174">
@@ -18948,7 +18937,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -18961,7 +18950,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1631</v>
+        <v>506</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -18974,7 +18963,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1654</v>
+        <v>529</v>
       </c>
     </row>
     <row r="175">
@@ -18989,7 +18978,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -19002,7 +18991,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1634</v>
+        <v>509</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -19015,7 +19004,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1655</v>
+        <v>530</v>
       </c>
     </row>
     <row r="176">
@@ -19030,7 +19019,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -19043,7 +19032,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1610</v>
+        <v>485</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -19056,7 +19045,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1656</v>
+        <v>531</v>
       </c>
     </row>
     <row r="177">
@@ -19071,7 +19060,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1600</v>
+        <v>475</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -19084,7 +19073,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1613</v>
+        <v>488</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -19097,7 +19086,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1657</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/gestion-programacion/creador-categorias/carga_ccatg.xlsx
+++ b/gestion-programacion/creador-categorias/carga_ccatg.xlsx
@@ -11885,7 +11885,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>308</v>
+        <v>534</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>309</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3">
@@ -11926,7 +11926,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>311</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4">
@@ -11967,7 +11967,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>312</v>
+        <v>538</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>313</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5">
@@ -12008,7 +12008,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>314</v>
+        <v>540</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>315</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6">
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>316</v>
+        <v>542</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>317</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7">
@@ -12090,7 +12090,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>318</v>
+        <v>544</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>319</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8">
@@ -12131,7 +12131,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>320</v>
+        <v>546</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>321</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9">
@@ -12172,7 +12172,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>312</v>
+        <v>538</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>322</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10">
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>323</v>
+        <v>549</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>324</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11">
@@ -12254,7 +12254,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>320</v>
+        <v>546</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>325</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12">
@@ -12295,7 +12295,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>326</v>
+        <v>552</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>327</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13">
@@ -12336,7 +12336,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>328</v>
+        <v>554</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>329</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14">
@@ -12377,7 +12377,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>318</v>
+        <v>544</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>330</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15">
@@ -12418,7 +12418,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>331</v>
+        <v>557</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>332</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16">
@@ -12459,7 +12459,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>333</v>
+        <v>559</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>334</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17">
@@ -12500,7 +12500,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>320</v>
+        <v>546</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>335</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18">
@@ -12541,7 +12541,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>336</v>
+        <v>562</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>337</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19">
@@ -12582,7 +12582,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>338</v>
+        <v>564</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>339</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20">
@@ -12623,7 +12623,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>331</v>
+        <v>557</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>340</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21">
@@ -12664,7 +12664,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>318</v>
+        <v>544</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>341</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22">
@@ -12705,7 +12705,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>328</v>
+        <v>554</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>342</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>328</v>
+        <v>554</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>343</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24">
@@ -12787,7 +12787,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>318</v>
+        <v>544</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>344</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25">
@@ -12828,7 +12828,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>320</v>
+        <v>546</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>345</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26">
@@ -12869,7 +12869,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>346</v>
+        <v>572</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>347</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27">
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>348</v>
+        <v>574</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>349</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28">
@@ -12951,7 +12951,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>350</v>
+        <v>576</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>351</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29">
@@ -12992,7 +12992,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>312</v>
+        <v>538</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>352</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30">
@@ -13033,7 +13033,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>320</v>
+        <v>546</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>353</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31">
@@ -13074,7 +13074,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>336</v>
+        <v>562</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>354</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32">
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>328</v>
+        <v>554</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>355</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33">
@@ -13156,7 +13156,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>328</v>
+        <v>554</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>356</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34">
@@ -13197,7 +13197,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>326</v>
+        <v>552</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>357</v>
+        <v>583</v>
       </c>
     </row>
     <row r="35">
@@ -13238,7 +13238,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>358</v>
+        <v>584</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>359</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36">
@@ -13279,7 +13279,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>360</v>
+        <v>586</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>361</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37">
@@ -13320,7 +13320,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>320</v>
+        <v>546</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>362</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38">
@@ -13361,7 +13361,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>318</v>
+        <v>544</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>363</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39">
@@ -13402,7 +13402,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>312</v>
+        <v>538</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>364</v>
+        <v>590</v>
       </c>
     </row>
     <row r="40">
@@ -13443,7 +13443,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>333</v>
+        <v>559</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>365</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41">
@@ -13484,7 +13484,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>366</v>
+        <v>592</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>367</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42">
@@ -13525,7 +13525,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>326</v>
+        <v>552</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>368</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43">
@@ -13566,7 +13566,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>318</v>
+        <v>544</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>369</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>336</v>
+        <v>562</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>370</v>
+        <v>596</v>
       </c>
     </row>
     <row r="45">
@@ -13648,7 +13648,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>314</v>
+        <v>540</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>371</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46">
@@ -13689,7 +13689,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>358</v>
+        <v>584</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>372</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47">
@@ -13730,7 +13730,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>348</v>
+        <v>574</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>373</v>
+        <v>599</v>
       </c>
     </row>
     <row r="48">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>328</v>
+        <v>554</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>374</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49">
@@ -13812,7 +13812,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>316</v>
+        <v>542</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>375</v>
+        <v>601</v>
       </c>
     </row>
     <row r="50">
@@ -13853,7 +13853,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>326</v>
+        <v>552</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>376</v>
+        <v>602</v>
       </c>
     </row>
     <row r="51">
@@ -13894,7 +13894,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>377</v>
+        <v>603</v>
       </c>
     </row>
     <row r="52">
@@ -13935,7 +13935,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>326</v>
+        <v>552</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>378</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53">
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>308</v>
+        <v>534</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>379</v>
+        <v>605</v>
       </c>
     </row>
     <row r="54">
@@ -14017,7 +14017,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>333</v>
+        <v>559</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>380</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55">
@@ -14058,7 +14058,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>333</v>
+        <v>559</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>381</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56">
@@ -14099,7 +14099,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>308</v>
+        <v>534</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>382</v>
+        <v>608</v>
       </c>
     </row>
     <row r="57">
@@ -14140,7 +14140,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>348</v>
+        <v>574</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>383</v>
+        <v>609</v>
       </c>
     </row>
     <row r="58">
@@ -14181,7 +14181,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>346</v>
+        <v>572</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>384</v>
+        <v>610</v>
       </c>
     </row>
     <row r="59">
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>385</v>
+        <v>611</v>
       </c>
     </row>
     <row r="60">
@@ -14263,7 +14263,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>350</v>
+        <v>576</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>386</v>
+        <v>612</v>
       </c>
     </row>
     <row r="61">
@@ -14304,7 +14304,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>350</v>
+        <v>576</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>387</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62">
@@ -14345,7 +14345,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>388</v>
+        <v>614</v>
       </c>
     </row>
     <row r="63">
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>323</v>
+        <v>549</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>389</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64">
@@ -14427,7 +14427,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>338</v>
+        <v>564</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>390</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65">
@@ -14468,7 +14468,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>336</v>
+        <v>562</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>391</v>
+        <v>617</v>
       </c>
     </row>
     <row r="66">
@@ -14509,7 +14509,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>358</v>
+        <v>584</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>392</v>
+        <v>618</v>
       </c>
     </row>
     <row r="67">
@@ -14550,7 +14550,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>333</v>
+        <v>559</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>393</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68">
@@ -14591,7 +14591,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>360</v>
+        <v>586</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>394</v>
+        <v>620</v>
       </c>
     </row>
     <row r="69">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>350</v>
+        <v>576</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>395</v>
+        <v>621</v>
       </c>
     </row>
     <row r="70">
@@ -14673,7 +14673,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>396</v>
+        <v>622</v>
       </c>
     </row>
     <row r="71">
@@ -14714,7 +14714,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>316</v>
+        <v>542</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>397</v>
+        <v>623</v>
       </c>
     </row>
     <row r="72">
@@ -14755,7 +14755,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>323</v>
+        <v>549</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>398</v>
+        <v>624</v>
       </c>
     </row>
     <row r="73">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>314</v>
+        <v>540</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>399</v>
+        <v>625</v>
       </c>
     </row>
     <row r="74">
@@ -14837,7 +14837,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>308</v>
+        <v>534</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>400</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75">
@@ -14878,7 +14878,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>316</v>
+        <v>542</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>401</v>
+        <v>627</v>
       </c>
     </row>
     <row r="76">
@@ -14919,7 +14919,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>338</v>
+        <v>564</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>402</v>
+        <v>628</v>
       </c>
     </row>
     <row r="77">
@@ -14960,7 +14960,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>348</v>
+        <v>574</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>403</v>
+        <v>629</v>
       </c>
     </row>
     <row r="78">
@@ -15001,7 +15001,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>308</v>
+        <v>534</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>404</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79">
@@ -15042,7 +15042,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>338</v>
+        <v>564</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>405</v>
+        <v>631</v>
       </c>
     </row>
     <row r="80">
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>316</v>
+        <v>542</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>406</v>
+        <v>632</v>
       </c>
     </row>
     <row r="81">
@@ -15124,7 +15124,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>407</v>
+        <v>633</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>408</v>
+        <v>634</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>409</v>
+        <v>635</v>
       </c>
     </row>
     <row r="82">
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>407</v>
+        <v>633</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>410</v>
+        <v>636</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>411</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83">
@@ -15206,7 +15206,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>407</v>
+        <v>633</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>408</v>
+        <v>634</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>412</v>
+        <v>638</v>
       </c>
     </row>
     <row r="84">
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>407</v>
+        <v>633</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>408</v>
+        <v>634</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>413</v>
+        <v>639</v>
       </c>
     </row>
     <row r="85">
@@ -15288,7 +15288,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>407</v>
+        <v>633</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>408</v>
+        <v>634</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>414</v>
+        <v>640</v>
       </c>
     </row>
     <row r="86">
@@ -15329,7 +15329,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>407</v>
+        <v>633</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>408</v>
+        <v>634</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>415</v>
+        <v>641</v>
       </c>
     </row>
     <row r="87">
@@ -15370,7 +15370,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>407</v>
+        <v>633</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>408</v>
+        <v>634</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>416</v>
+        <v>642</v>
       </c>
     </row>
     <row r="88">
@@ -15411,7 +15411,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>417</v>
+        <v>643</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>418</v>
+        <v>644</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>419</v>
+        <v>645</v>
       </c>
     </row>
     <row r="89">
@@ -15452,7 +15452,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>417</v>
+        <v>643</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>418</v>
+        <v>644</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>420</v>
+        <v>646</v>
       </c>
     </row>
     <row r="90">
@@ -15493,7 +15493,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>417</v>
+        <v>643</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>418</v>
+        <v>644</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>421</v>
+        <v>647</v>
       </c>
     </row>
     <row r="91">
@@ -15534,7 +15534,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>417</v>
+        <v>643</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>418</v>
+        <v>644</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>422</v>
+        <v>648</v>
       </c>
     </row>
     <row r="92">
@@ -15575,7 +15575,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>417</v>
+        <v>643</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>418</v>
+        <v>644</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>423</v>
+        <v>649</v>
       </c>
     </row>
     <row r="93">
@@ -15616,7 +15616,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>417</v>
+        <v>643</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>418</v>
+        <v>644</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>424</v>
+        <v>650</v>
       </c>
     </row>
     <row r="94">
@@ -15657,7 +15657,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>426</v>
+        <v>652</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>427</v>
+        <v>653</v>
       </c>
     </row>
     <row r="95">
@@ -15698,7 +15698,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>429</v>
+        <v>655</v>
       </c>
     </row>
     <row r="96">
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>426</v>
+        <v>652</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>430</v>
+        <v>656</v>
       </c>
     </row>
     <row r="97">
@@ -15780,7 +15780,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>431</v>
+        <v>657</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>432</v>
+        <v>658</v>
       </c>
     </row>
     <row r="98">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>433</v>
+        <v>659</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>434</v>
+        <v>660</v>
       </c>
     </row>
     <row r="99">
@@ -15862,7 +15862,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>426</v>
+        <v>652</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>435</v>
+        <v>661</v>
       </c>
     </row>
     <row r="100">
@@ -15903,7 +15903,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>436</v>
+        <v>662</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>437</v>
+        <v>663</v>
       </c>
     </row>
     <row r="101">
@@ -15944,7 +15944,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>438</v>
+        <v>664</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>439</v>
+        <v>665</v>
       </c>
     </row>
     <row r="102">
@@ -15985,7 +15985,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>436</v>
+        <v>662</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>440</v>
+        <v>666</v>
       </c>
     </row>
     <row r="103">
@@ -16026,7 +16026,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>441</v>
+        <v>667</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>442</v>
+        <v>668</v>
       </c>
     </row>
     <row r="104">
@@ -16067,7 +16067,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>426</v>
+        <v>652</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>443</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105">
@@ -16108,7 +16108,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>436</v>
+        <v>662</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>444</v>
+        <v>670</v>
       </c>
     </row>
     <row r="106">
@@ -16149,7 +16149,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>426</v>
+        <v>652</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>445</v>
+        <v>671</v>
       </c>
     </row>
     <row r="107">
@@ -16190,7 +16190,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>446</v>
+        <v>672</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>447</v>
+        <v>673</v>
       </c>
     </row>
     <row r="108">
@@ -16231,7 +16231,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>431</v>
+        <v>657</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>448</v>
+        <v>674</v>
       </c>
     </row>
     <row r="109">
@@ -16272,7 +16272,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>446</v>
+        <v>672</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>449</v>
+        <v>675</v>
       </c>
     </row>
     <row r="110">
@@ -16313,7 +16313,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>441</v>
+        <v>667</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>450</v>
+        <v>676</v>
       </c>
     </row>
     <row r="111">
@@ -16354,7 +16354,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>426</v>
+        <v>652</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>451</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112">
@@ -16395,7 +16395,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>452</v>
+        <v>678</v>
       </c>
     </row>
     <row r="113">
@@ -16436,7 +16436,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>436</v>
+        <v>662</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>453</v>
+        <v>679</v>
       </c>
     </row>
     <row r="114">
@@ -16477,7 +16477,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>446</v>
+        <v>672</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>454</v>
+        <v>680</v>
       </c>
     </row>
     <row r="115">
@@ -16518,7 +16518,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>455</v>
+        <v>681</v>
       </c>
     </row>
     <row r="116">
@@ -16559,7 +16559,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>456</v>
+        <v>682</v>
       </c>
     </row>
     <row r="117">
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>457</v>
+        <v>683</v>
       </c>
     </row>
     <row r="118">
@@ -16641,7 +16641,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>446</v>
+        <v>672</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>458</v>
+        <v>684</v>
       </c>
     </row>
     <row r="119">
@@ -16682,7 +16682,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>459</v>
+        <v>685</v>
       </c>
     </row>
     <row r="120">
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>431</v>
+        <v>657</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>460</v>
+        <v>686</v>
       </c>
     </row>
     <row r="121">
@@ -16764,7 +16764,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>461</v>
+        <v>687</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -16790,7 +16790,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>462</v>
+        <v>688</v>
       </c>
     </row>
     <row r="122">
@@ -16805,7 +16805,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>436</v>
+        <v>662</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>463</v>
+        <v>689</v>
       </c>
     </row>
     <row r="123">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>438</v>
+        <v>664</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>464</v>
+        <v>690</v>
       </c>
     </row>
     <row r="124">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>441</v>
+        <v>667</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>465</v>
+        <v>691</v>
       </c>
     </row>
     <row r="125">
@@ -16928,7 +16928,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>431</v>
+        <v>657</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>466</v>
+        <v>692</v>
       </c>
     </row>
     <row r="126">
@@ -16969,7 +16969,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>433</v>
+        <v>659</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>467</v>
+        <v>693</v>
       </c>
     </row>
     <row r="127">
@@ -17010,7 +17010,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>468</v>
+        <v>694</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>469</v>
+        <v>695</v>
       </c>
     </row>
     <row r="128">
@@ -17051,7 +17051,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>461</v>
+        <v>687</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>470</v>
+        <v>696</v>
       </c>
     </row>
     <row r="129">
@@ -17092,7 +17092,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>436</v>
+        <v>662</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>471</v>
+        <v>697</v>
       </c>
     </row>
     <row r="130">
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>472</v>
+        <v>698</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>473</v>
+        <v>699</v>
       </c>
     </row>
     <row r="131">
@@ -17174,7 +17174,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>446</v>
+        <v>672</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>474</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132">
@@ -17215,7 +17215,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>476</v>
+        <v>702</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>477</v>
+        <v>703</v>
       </c>
     </row>
     <row r="133">
@@ -17256,7 +17256,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>478</v>
+        <v>704</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>479</v>
+        <v>705</v>
       </c>
     </row>
     <row r="134">
@@ -17297,7 +17297,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>476</v>
+        <v>702</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>480</v>
+        <v>706</v>
       </c>
     </row>
     <row r="135">
@@ -17338,7 +17338,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>481</v>
+        <v>707</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>482</v>
+        <v>708</v>
       </c>
     </row>
     <row r="136">
@@ -17379,7 +17379,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>476</v>
+        <v>702</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>483</v>
+        <v>709</v>
       </c>
     </row>
     <row r="137">
@@ -17420,7 +17420,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>481</v>
+        <v>707</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>484</v>
+        <v>710</v>
       </c>
     </row>
     <row r="138">
@@ -17461,7 +17461,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>485</v>
+        <v>711</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>486</v>
+        <v>712</v>
       </c>
     </row>
     <row r="139">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>478</v>
+        <v>704</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>487</v>
+        <v>713</v>
       </c>
     </row>
     <row r="140">
@@ -17543,7 +17543,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>488</v>
+        <v>714</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>489</v>
+        <v>715</v>
       </c>
     </row>
     <row r="141">
@@ -17584,7 +17584,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>478</v>
+        <v>704</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>490</v>
+        <v>716</v>
       </c>
     </row>
     <row r="142">
@@ -17625,7 +17625,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>476</v>
+        <v>702</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>491</v>
+        <v>717</v>
       </c>
     </row>
     <row r="143">
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>492</v>
+        <v>718</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>493</v>
+        <v>719</v>
       </c>
     </row>
     <row r="144">
@@ -17707,7 +17707,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>481</v>
+        <v>707</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>494</v>
+        <v>720</v>
       </c>
     </row>
     <row r="145">
@@ -17748,7 +17748,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>478</v>
+        <v>704</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>495</v>
+        <v>721</v>
       </c>
     </row>
     <row r="146">
@@ -17789,7 +17789,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>492</v>
+        <v>718</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>496</v>
+        <v>722</v>
       </c>
     </row>
     <row r="147">
@@ -17830,7 +17830,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>476</v>
+        <v>702</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>497</v>
+        <v>723</v>
       </c>
     </row>
     <row r="148">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>481</v>
+        <v>707</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>498</v>
+        <v>724</v>
       </c>
     </row>
     <row r="149">
@@ -17912,7 +17912,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>485</v>
+        <v>711</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>499</v>
+        <v>725</v>
       </c>
     </row>
     <row r="150">
@@ -17953,7 +17953,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>500</v>
+        <v>726</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>501</v>
+        <v>727</v>
       </c>
     </row>
     <row r="151">
@@ -17994,7 +17994,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>476</v>
+        <v>702</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>502</v>
+        <v>728</v>
       </c>
     </row>
     <row r="152">
@@ -18035,7 +18035,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>478</v>
+        <v>704</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>503</v>
+        <v>729</v>
       </c>
     </row>
     <row r="153">
@@ -18076,7 +18076,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>492</v>
+        <v>718</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>504</v>
+        <v>730</v>
       </c>
     </row>
     <row r="154">
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>500</v>
+        <v>726</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>505</v>
+        <v>731</v>
       </c>
     </row>
     <row r="155">
@@ -18158,7 +18158,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>506</v>
+        <v>732</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>507</v>
+        <v>733</v>
       </c>
     </row>
     <row r="156">
@@ -18199,7 +18199,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>485</v>
+        <v>711</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>508</v>
+        <v>734</v>
       </c>
     </row>
     <row r="157">
@@ -18240,7 +18240,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>509</v>
+        <v>735</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>510</v>
+        <v>736</v>
       </c>
     </row>
     <row r="158">
@@ -18281,7 +18281,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>485</v>
+        <v>711</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>511</v>
+        <v>737</v>
       </c>
     </row>
     <row r="159">
@@ -18322,7 +18322,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>506</v>
+        <v>732</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>512</v>
+        <v>738</v>
       </c>
     </row>
     <row r="160">
@@ -18363,7 +18363,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>488</v>
+        <v>714</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>513</v>
+        <v>739</v>
       </c>
     </row>
     <row r="161">
@@ -18404,7 +18404,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>492</v>
+        <v>718</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>514</v>
+        <v>740</v>
       </c>
     </row>
     <row r="162">
@@ -18445,7 +18445,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>500</v>
+        <v>726</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>515</v>
+        <v>741</v>
       </c>
     </row>
     <row r="163">
@@ -18486,7 +18486,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>500</v>
+        <v>726</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>516</v>
+        <v>742</v>
       </c>
     </row>
     <row r="164">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>517</v>
+        <v>743</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>518</v>
+        <v>744</v>
       </c>
     </row>
     <row r="165">
@@ -18568,7 +18568,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>492</v>
+        <v>718</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>519</v>
+        <v>745</v>
       </c>
     </row>
     <row r="166">
@@ -18609,7 +18609,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>488</v>
+        <v>714</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>520</v>
+        <v>746</v>
       </c>
     </row>
     <row r="167">
@@ -18650,7 +18650,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>488</v>
+        <v>714</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>521</v>
+        <v>747</v>
       </c>
     </row>
     <row r="168">
@@ -18691,7 +18691,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>522</v>
+        <v>748</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>523</v>
+        <v>749</v>
       </c>
     </row>
     <row r="169">
@@ -18732,7 +18732,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>726</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>524</v>
+        <v>750</v>
       </c>
     </row>
     <row r="170">
@@ -18773,7 +18773,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>726</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>525</v>
+        <v>751</v>
       </c>
     </row>
     <row r="171">
@@ -18814,7 +18814,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>485</v>
+        <v>711</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>526</v>
+        <v>752</v>
       </c>
     </row>
     <row r="172">
@@ -18855,7 +18855,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>492</v>
+        <v>718</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>527</v>
+        <v>753</v>
       </c>
     </row>
     <row r="173">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>481</v>
+        <v>707</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>528</v>
+        <v>754</v>
       </c>
     </row>
     <row r="174">
@@ -18937,7 +18937,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>506</v>
+        <v>732</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>529</v>
+        <v>755</v>
       </c>
     </row>
     <row r="175">
@@ -18978,7 +18978,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>509</v>
+        <v>735</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>530</v>
+        <v>756</v>
       </c>
     </row>
     <row r="176">
@@ -19019,7 +19019,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>485</v>
+        <v>711</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>531</v>
+        <v>757</v>
       </c>
     </row>
     <row r="177">
@@ -19060,7 +19060,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>488</v>
+        <v>714</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>532</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
